--- a/fupa documentos finales/Sprint1/Listado de pruebas.xlsx
+++ b/fupa documentos finales/Sprint1/Listado de pruebas.xlsx
@@ -149,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +165,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -211,6 +217,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,7 +526,7 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,16 +550,16 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>31</v>
       </c>
     </row>

--- a/fupa documentos finales/Sprint1/Listado de pruebas.xlsx
+++ b/fupa documentos finales/Sprint1/Listado de pruebas.xlsx
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,7 +143,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,11 +209,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -219,9 +223,13 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,6 +242,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8810625" y="0"/>
+          <a:ext cx="1162050" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H14"/>
+  <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,14 +600,15 @@
     <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:8" ht="96" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -564,228 +625,229 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>41600</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
